--- a/data/data-processed/data_tidied.xlsx
+++ b/data/data-processed/data_tidied.xlsx
@@ -119,6 +119,9 @@
     <t xml:space="preserve">Health</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">7213</t>
   </si>
   <si>
@@ -137,12 +140,12 @@
     <t xml:space="preserve">Natural sciences, mathematics, statistics</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Information, Communications</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
     <t xml:space="preserve">7242</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
     <t xml:space="preserve">Business, Administration</t>
   </si>
   <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
     <t xml:space="preserve">7254</t>
   </si>
   <si>
@@ -182,9 +188,6 @@
     <t xml:space="preserve">Engineering, manufacturing, construction</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Science and Engineering</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
     <t xml:space="preserve">Agriculture, forestry, fisheries, veterinary</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
     <t xml:space="preserve">7292</t>
   </si>
   <si>
@@ -317,6 +317,9 @@
     <t xml:space="preserve">No answer</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">7480</t>
   </si>
   <si>
@@ -426,9 +429,6 @@
   </si>
   <si>
     <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">7755</t>
@@ -8248,8 +8248,8 @@
       <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="n">
-        <v>5</v>
+      <c r="I2" t="s">
+        <v>34</v>
       </c>
       <c r="J2" t="n">
         <v>65</v>
@@ -8308,13 +8308,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -8329,10 +8329,10 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="n">
         <v>59</v>
@@ -8391,31 +8391,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="n">
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="n">
-        <v>8</v>
+      <c r="I4" t="s">
+        <v>42</v>
       </c>
       <c r="J4" t="n">
         <v>43</v>
@@ -8474,31 +8474,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
       </c>
       <c r="J5" t="n">
         <v>73</v>
@@ -8557,31 +8557,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" t="n">
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="n">
-        <v>5</v>
+      <c r="I6" t="s">
+        <v>34</v>
       </c>
       <c r="J6" t="n">
         <v>16</v>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="n">
         <v>36</v>
@@ -8652,19 +8652,19 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
       </c>
       <c r="J7" t="n">
         <v>55</v>
@@ -8723,31 +8723,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" t="n">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
       </c>
       <c r="J8" t="n">
         <v>19</v>
@@ -8806,31 +8806,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="n">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
       </c>
       <c r="J9" t="n">
         <v>47</v>
@@ -8889,31 +8889,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="n">
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" t="n">
-        <v>5</v>
+      <c r="I10" t="s">
+        <v>34</v>
       </c>
       <c r="J10" t="n">
         <v>16</v>
@@ -8972,31 +8972,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" t="n">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
       </c>
       <c r="J11" t="n">
         <v>43</v>
@@ -9064,10 +9064,10 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
         <v>66</v>
@@ -9078,8 +9078,8 @@
       <c r="H12" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="n">
-        <v>8</v>
+      <c r="I12" t="s">
+        <v>42</v>
       </c>
       <c r="J12" t="n">
         <v>16</v>
@@ -9161,8 +9161,8 @@
       <c r="H13" t="s">
         <v>41</v>
       </c>
-      <c r="I13" t="n">
-        <v>8</v>
+      <c r="I13" t="s">
+        <v>42</v>
       </c>
       <c r="J13" t="n">
         <v>57</v>
@@ -9227,25 +9227,25 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
         <v>70</v>
       </c>
-      <c r="I14" t="n">
-        <v>9</v>
+      <c r="I14" t="s">
+        <v>53</v>
       </c>
       <c r="J14" t="n">
         <v>16</v>
@@ -9310,25 +9310,25 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
       </c>
       <c r="J15" t="n">
         <v>49</v>
@@ -9393,25 +9393,25 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
       </c>
       <c r="J16" t="n">
         <v>34</v>
@@ -9476,10 +9476,10 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -9491,10 +9491,10 @@
         <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
       </c>
       <c r="J17" t="n">
         <v>26</v>
@@ -9559,13 +9559,13 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>74</v>
@@ -9576,8 +9576,8 @@
       <c r="H18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="n">
-        <v>5</v>
+      <c r="I18" t="s">
+        <v>34</v>
       </c>
       <c r="J18" t="n">
         <v>19</v>
@@ -9642,13 +9642,13 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
         <v>74</v>
@@ -9657,10 +9657,10 @@
         <v>75</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
       </c>
       <c r="J19" t="n">
         <v>16</v>
@@ -9725,25 +9725,25 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
       </c>
       <c r="J20" t="n">
         <v>16</v>
@@ -9825,8 +9825,8 @@
       <c r="H21" t="s">
         <v>41</v>
       </c>
-      <c r="I21" t="n">
-        <v>8</v>
+      <c r="I21" t="s">
+        <v>42</v>
       </c>
       <c r="J21" t="n">
         <v>38</v>
@@ -9891,7 +9891,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
@@ -9906,10 +9906,10 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
       </c>
       <c r="J22" t="n">
         <v>58</v>
@@ -9974,13 +9974,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>31</v>
@@ -9989,10 +9989,10 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
       </c>
       <c r="J23" t="n">
         <v>16</v>
@@ -10057,25 +10057,25 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s">
         <v>33</v>
       </c>
-      <c r="I24" t="n">
-        <v>5</v>
+      <c r="I24" t="s">
+        <v>34</v>
       </c>
       <c r="J24" t="n">
         <v>16</v>
@@ -10140,13 +10140,13 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
@@ -10155,10 +10155,10 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
       </c>
       <c r="J25" t="n">
         <v>75</v>
@@ -10223,25 +10223,25 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
       </c>
       <c r="J26" t="n">
         <v>67</v>
@@ -10309,10 +10309,10 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>66</v>
@@ -10323,8 +10323,8 @@
       <c r="H27" t="s">
         <v>41</v>
       </c>
-      <c r="I27" t="n">
-        <v>8</v>
+      <c r="I27" t="s">
+        <v>42</v>
       </c>
       <c r="J27" t="n">
         <v>16</v>
@@ -10389,13 +10389,13 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
         <v>74</v>
@@ -10404,10 +10404,10 @@
         <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
       </c>
       <c r="J28" t="n">
         <v>66</v>
@@ -10472,13 +10472,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -10487,10 +10487,10 @@
         <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
       </c>
       <c r="J29" t="n">
         <v>20</v>
@@ -10555,13 +10555,13 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
@@ -10570,10 +10570,10 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
       </c>
       <c r="J30" t="n">
         <v>53</v>
@@ -10638,7 +10638,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -10647,16 +10647,16 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
       </c>
       <c r="J31" t="n">
         <v>51</v>
@@ -10738,8 +10738,8 @@
       <c r="H32" t="s">
         <v>93</v>
       </c>
-      <c r="I32" t="n">
-        <v>6</v>
+      <c r="I32" t="s">
+        <v>67</v>
       </c>
       <c r="J32" t="n">
         <v>57</v>
@@ -10804,25 +10804,25 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
         <v>48</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
       </c>
       <c r="J33" t="n">
         <v>16</v>
@@ -10887,13 +10887,13 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
         <v>74</v>
@@ -10902,10 +10902,10 @@
         <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>48</v>
       </c>
       <c r="J34" t="n">
         <v>16</v>
@@ -10970,13 +10970,13 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
         <v>74</v>
@@ -10985,10 +10985,10 @@
         <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>48</v>
       </c>
       <c r="J35" t="n">
         <v>24</v>
@@ -11053,10 +11053,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
@@ -11070,8 +11070,8 @@
       <c r="H36" t="s">
         <v>70</v>
       </c>
-      <c r="I36" t="n">
-        <v>9</v>
+      <c r="I36" t="s">
+        <v>53</v>
       </c>
       <c r="J36" t="n">
         <v>16</v>
@@ -11136,13 +11136,13 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
         <v>74</v>
@@ -11153,8 +11153,8 @@
       <c r="H37" t="s">
         <v>99</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
+      <c r="I37" t="s">
+        <v>100</v>
       </c>
       <c r="J37" t="n">
         <v>32</v>
@@ -11213,19 +11213,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38" t="n">
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
         <v>74</v>
@@ -11236,8 +11236,8 @@
       <c r="H38" t="s">
         <v>70</v>
       </c>
-      <c r="I38" t="n">
-        <v>9</v>
+      <c r="I38" t="s">
+        <v>53</v>
       </c>
       <c r="J38" t="n">
         <v>65</v>
@@ -11296,7 +11296,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B39" t="n">
         <v>23</v>
@@ -11305,22 +11305,22 @@
         <v>28</v>
       </c>
       <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" t="s">
-        <v>55</v>
-      </c>
       <c r="H39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
       </c>
       <c r="J39" t="n">
         <v>16</v>
@@ -11379,19 +11379,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B40" t="n">
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
         <v>74</v>
@@ -11400,10 +11400,10 @@
         <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
       </c>
       <c r="J40" t="n">
         <v>17</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" t="n">
         <v>19</v>
@@ -11471,22 +11471,22 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
       </c>
       <c r="J41" t="n">
         <v>32</v>
@@ -11545,31 +11545,31 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B42" t="n">
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
         <v>41</v>
       </c>
-      <c r="I42" t="n">
-        <v>8</v>
+      <c r="I42" t="s">
+        <v>42</v>
       </c>
       <c r="J42" t="n">
         <v>20</v>
@@ -11628,7 +11628,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B43" t="n">
         <v>35</v>
@@ -11637,7 +11637,7 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
@@ -11649,10 +11649,10 @@
         <v>67</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
       </c>
       <c r="J43" t="n">
         <v>16</v>
@@ -11711,31 +11711,31 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B44" t="n">
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
         <v>93</v>
       </c>
-      <c r="I44" t="n">
-        <v>6</v>
+      <c r="I44" t="s">
+        <v>67</v>
       </c>
       <c r="J44" t="n">
         <v>16</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B45" t="n">
         <v>48</v>
@@ -11809,16 +11809,16 @@
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H45" t="s">
         <v>41</v>
       </c>
-      <c r="I45" t="n">
-        <v>8</v>
+      <c r="I45" t="s">
+        <v>42</v>
       </c>
       <c r="J45" t="n">
         <v>34</v>
@@ -11877,7 +11877,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B46" t="n">
         <v>32</v>
@@ -11886,10 +11886,10 @@
         <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
         <v>74</v>
@@ -11900,8 +11900,8 @@
       <c r="H46" t="s">
         <v>41</v>
       </c>
-      <c r="I46" t="n">
-        <v>8</v>
+      <c r="I46" t="s">
+        <v>42</v>
       </c>
       <c r="J46" t="n">
         <v>16</v>
@@ -11960,19 +11960,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B47" t="n">
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
@@ -11981,10 +11981,10 @@
         <v>32</v>
       </c>
       <c r="H47" t="s">
-        <v>36</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I47" t="s">
+        <v>32</v>
       </c>
       <c r="J47" t="n">
         <v>20</v>
@@ -12043,13 +12043,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" t="n">
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
         <v>29</v>
@@ -12064,10 +12064,10 @@
         <v>75</v>
       </c>
       <c r="H48" t="s">
-        <v>36</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
       </c>
       <c r="J48" t="n">
         <v>46</v>
@@ -12126,31 +12126,31 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B49" t="n">
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H49" t="s">
-        <v>36</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
       </c>
       <c r="J49" t="n">
         <v>16</v>
@@ -12209,31 +12209,31 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" t="n">
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
         <v>48</v>
-      </c>
-      <c r="E50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" t="s">
-        <v>45</v>
-      </c>
-      <c r="H50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50" t="n">
-        <v>7</v>
       </c>
       <c r="J50" t="n">
         <v>16</v>
@@ -12292,19 +12292,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51" t="n">
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
         <v>31</v>
@@ -12313,10 +12313,10 @@
         <v>32</v>
       </c>
       <c r="H51" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I51" t="s">
+        <v>32</v>
       </c>
       <c r="J51" t="n">
         <v>74</v>
@@ -12375,31 +12375,31 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B52" t="n">
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
         <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>48</v>
       </c>
       <c r="J52" t="n">
         <v>69</v>
@@ -12458,31 +12458,31 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" t="n">
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
         <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="I53" t="s">
+        <v>46</v>
       </c>
       <c r="J53" t="n">
         <v>61</v>
@@ -12541,31 +12541,31 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B54" t="n">
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
         <v>41</v>
       </c>
-      <c r="I54" t="n">
-        <v>8</v>
+      <c r="I54" t="s">
+        <v>42</v>
       </c>
       <c r="J54" t="n">
         <v>16</v>
@@ -12624,31 +12624,31 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B55" t="n">
         <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s">
         <v>33</v>
       </c>
-      <c r="I55" t="n">
-        <v>5</v>
+      <c r="I55" t="s">
+        <v>34</v>
       </c>
       <c r="J55" t="n">
         <v>20</v>
@@ -12707,19 +12707,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B56" t="n">
         <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D56" t="s">
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
         <v>74</v>
@@ -12730,8 +12730,8 @@
       <c r="H56" t="s">
         <v>70</v>
       </c>
-      <c r="I56" t="n">
-        <v>9</v>
+      <c r="I56" t="s">
+        <v>53</v>
       </c>
       <c r="J56" t="n">
         <v>64</v>
@@ -12790,31 +12790,31 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B57" t="n">
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I57" t="s">
+        <v>32</v>
       </c>
       <c r="J57" t="n">
         <v>20</v>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B58" t="n">
         <v>25</v>
@@ -12896,8 +12896,8 @@
       <c r="H58" t="s">
         <v>41</v>
       </c>
-      <c r="I58" t="n">
-        <v>8</v>
+      <c r="I58" t="s">
+        <v>42</v>
       </c>
       <c r="J58" t="n">
         <v>51</v>
@@ -12956,19 +12956,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59" t="n">
         <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s">
         <v>74</v>
@@ -12979,8 +12979,8 @@
       <c r="H59" t="s">
         <v>93</v>
       </c>
-      <c r="I59" t="n">
-        <v>6</v>
+      <c r="I59" t="s">
+        <v>67</v>
       </c>
       <c r="J59" t="n">
         <v>66</v>
@@ -13039,31 +13039,31 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B60" t="n">
         <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>48</v>
       </c>
       <c r="J60" t="n">
         <v>16</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B61" t="n">
         <v>50</v>
@@ -13134,19 +13134,19 @@
         <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>48</v>
       </c>
       <c r="J61" t="n">
         <v>61</v>
@@ -13205,7 +13205,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B62" t="n">
         <v>22</v>
@@ -13220,16 +13220,16 @@
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G62" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s">
-        <v>36</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I62" t="s">
+        <v>32</v>
       </c>
       <c r="J62" t="n">
         <v>58</v>
@@ -13288,13 +13288,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B63" t="n">
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -13303,16 +13303,16 @@
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
         <v>70</v>
       </c>
-      <c r="I63" t="n">
-        <v>9</v>
+      <c r="I63" t="s">
+        <v>53</v>
       </c>
       <c r="J63" t="n">
         <v>62</v>
@@ -13371,13 +13371,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B64" t="n">
         <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
         <v>29</v>
@@ -13392,10 +13392,10 @@
         <v>75</v>
       </c>
       <c r="H64" t="s">
-        <v>129</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="I64" t="s">
+        <v>75</v>
       </c>
       <c r="J64" t="n">
         <v>50</v>
@@ -13454,31 +13454,31 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B65" t="n">
         <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
-      </c>
-      <c r="I65" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>48</v>
       </c>
       <c r="J65" t="n">
         <v>72</v>
@@ -13537,7 +13537,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B66" t="n">
         <v>50</v>
@@ -13549,19 +13549,19 @@
         <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
         <v>41</v>
       </c>
-      <c r="I66" t="n">
-        <v>8</v>
+      <c r="I66" t="s">
+        <v>42</v>
       </c>
       <c r="J66" t="n">
         <v>39</v>
@@ -13620,16 +13620,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B67" t="n">
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E67" t="s">
         <v>30</v>
@@ -13641,10 +13641,10 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>48</v>
       </c>
       <c r="J67" t="n">
         <v>27</v>
@@ -13703,19 +13703,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B68" t="n">
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
         <v>31</v>
@@ -13724,10 +13724,10 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>36</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I68" t="s">
+        <v>32</v>
       </c>
       <c r="J68" t="n">
         <v>54</v>
@@ -13786,19 +13786,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69" t="n">
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s">
         <v>74</v>
@@ -13807,10 +13807,10 @@
         <v>75</v>
       </c>
       <c r="H69" t="s">
-        <v>129</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="I69" t="s">
+        <v>75</v>
       </c>
       <c r="J69" t="n">
         <v>16</v>
@@ -13869,31 +13869,31 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B70" t="n">
         <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G70" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H70" t="s">
         <v>93</v>
       </c>
-      <c r="I70" t="n">
-        <v>6</v>
+      <c r="I70" t="s">
+        <v>67</v>
       </c>
       <c r="J70" t="n">
         <v>16</v>
@@ -13958,7 +13958,7 @@
         <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
         <v>29</v>
@@ -13967,16 +13967,16 @@
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
-        <v>36</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I71" t="s">
+        <v>32</v>
       </c>
       <c r="J71" t="n">
         <v>47</v>
@@ -14047,7 +14047,7 @@
         <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
         <v>66</v>
@@ -14058,8 +14058,8 @@
       <c r="H72" t="s">
         <v>41</v>
       </c>
-      <c r="I72" t="n">
-        <v>8</v>
+      <c r="I72" t="s">
+        <v>42</v>
       </c>
       <c r="J72" t="n">
         <v>64</v>
@@ -14124,7 +14124,7 @@
         <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
@@ -14139,10 +14139,10 @@
         <v>75</v>
       </c>
       <c r="H73" t="s">
-        <v>36</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I73" t="s">
+        <v>32</v>
       </c>
       <c r="J73" t="n">
         <v>47</v>
@@ -14207,25 +14207,25 @@
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" t="s">
         <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H74" t="s">
         <v>70</v>
       </c>
-      <c r="I74" t="n">
-        <v>9</v>
+      <c r="I74" t="s">
+        <v>53</v>
       </c>
       <c r="J74" t="n">
         <v>46</v>
@@ -14290,13 +14290,13 @@
         <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
         <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
         <v>31</v>
@@ -14305,10 +14305,10 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>36</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I75" t="s">
+        <v>32</v>
       </c>
       <c r="J75" t="n">
         <v>68</v>
@@ -14373,13 +14373,13 @@
         <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
         <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
         <v>31</v>
@@ -14388,10 +14388,10 @@
         <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>36</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I76" t="s">
+        <v>32</v>
       </c>
       <c r="J76" t="n">
         <v>62</v>
@@ -14456,25 +14456,25 @@
         <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G77" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>48</v>
       </c>
       <c r="J77" t="n">
         <v>16</v>
@@ -14542,7 +14542,7 @@
         <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
@@ -14556,8 +14556,8 @@
       <c r="H78" t="s">
         <v>41</v>
       </c>
-      <c r="I78" t="n">
-        <v>8</v>
+      <c r="I78" t="s">
+        <v>42</v>
       </c>
       <c r="J78" t="n">
         <v>16</v>
@@ -14622,13 +14622,13 @@
         <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
         <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
         <v>31</v>
@@ -14637,10 +14637,10 @@
         <v>32</v>
       </c>
       <c r="H79" t="s">
-        <v>36</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I79" t="s">
+        <v>32</v>
       </c>
       <c r="J79" t="n">
         <v>62</v>
@@ -14705,13 +14705,13 @@
         <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
         <v>29</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F80" t="s">
         <v>74</v>
@@ -14722,8 +14722,8 @@
       <c r="H80" t="s">
         <v>41</v>
       </c>
-      <c r="I80" t="n">
-        <v>8</v>
+      <c r="I80" t="s">
+        <v>42</v>
       </c>
       <c r="J80" t="n">
         <v>63</v>
@@ -14788,25 +14788,25 @@
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H81" t="s">
-        <v>36</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I81" t="s">
+        <v>32</v>
       </c>
       <c r="J81" t="n">
         <v>20</v>
@@ -14871,25 +14871,25 @@
         <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82" t="s">
         <v>29</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H82" t="s">
         <v>33</v>
       </c>
-      <c r="I82" t="n">
-        <v>5</v>
+      <c r="I82" t="s">
+        <v>34</v>
       </c>
       <c r="J82" t="n">
         <v>68</v>
@@ -14954,10 +14954,10 @@
         <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
@@ -14971,8 +14971,8 @@
       <c r="H83" t="s">
         <v>93</v>
       </c>
-      <c r="I83" t="n">
-        <v>6</v>
+      <c r="I83" t="s">
+        <v>67</v>
       </c>
       <c r="J83" t="n">
         <v>16</v>
@@ -15037,25 +15037,25 @@
         <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D84" t="s">
         <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>48</v>
       </c>
       <c r="J84" t="n">
         <v>55</v>
@@ -15120,25 +15120,25 @@
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D85" t="s">
         <v>29</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H85" t="s">
         <v>99</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
+      <c r="I85" t="s">
+        <v>100</v>
       </c>
       <c r="J85" t="n">
         <v>74</v>
@@ -15203,7 +15203,7 @@
         <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D86" t="s">
         <v>29</v>
@@ -15212,16 +15212,16 @@
         <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G86" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H86" t="s">
-        <v>56</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="I86" t="s">
+        <v>46</v>
       </c>
       <c r="J86" t="n">
         <v>65</v>
@@ -15286,25 +15286,25 @@
         <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
         <v>33</v>
       </c>
-      <c r="I87" t="n">
-        <v>5</v>
+      <c r="I87" t="s">
+        <v>34</v>
       </c>
       <c r="J87" t="n">
         <v>17</v>
@@ -15369,25 +15369,25 @@
         <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I88" t="s">
+        <v>32</v>
       </c>
       <c r="J88" t="n">
         <v>75</v>
@@ -15452,13 +15452,13 @@
         <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
         <v>74</v>
@@ -15467,10 +15467,10 @@
         <v>75</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
-      </c>
-      <c r="I89" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>48</v>
       </c>
       <c r="J89" t="n">
         <v>27</v>
@@ -15541,19 +15541,19 @@
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
-      </c>
-      <c r="I90" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>48</v>
       </c>
       <c r="J90" t="n">
         <v>55</v>
@@ -15618,25 +15618,25 @@
         <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D91" t="s">
         <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G91" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H91" t="s">
         <v>93</v>
       </c>
-      <c r="I91" t="n">
-        <v>6</v>
+      <c r="I91" t="s">
+        <v>67</v>
       </c>
       <c r="J91" t="n">
         <v>65</v>
@@ -15704,22 +15704,22 @@
         <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>48</v>
       </c>
       <c r="J92" t="n">
         <v>16</v>
@@ -15784,25 +15784,25 @@
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
         <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>36</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I93" t="s">
+        <v>32</v>
       </c>
       <c r="J93" t="n">
         <v>62</v>
@@ -15867,10 +15867,10 @@
         <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
@@ -15882,10 +15882,10 @@
         <v>32</v>
       </c>
       <c r="H94" t="s">
-        <v>36</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I94" t="s">
+        <v>32</v>
       </c>
       <c r="J94" t="n">
         <v>17</v>
@@ -15967,8 +15967,8 @@
       <c r="H95" t="s">
         <v>93</v>
       </c>
-      <c r="I95" t="n">
-        <v>6</v>
+      <c r="I95" t="s">
+        <v>67</v>
       </c>
       <c r="J95" t="n">
         <v>68</v>
@@ -16033,25 +16033,25 @@
         <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H96" t="s">
-        <v>36</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I96" t="s">
+        <v>32</v>
       </c>
       <c r="J96" t="n">
         <v>16</v>
@@ -16116,25 +16116,25 @@
         <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H97" t="s">
-        <v>56</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="I97" t="s">
+        <v>46</v>
       </c>
       <c r="J97" t="n">
         <v>16</v>
@@ -20899,7 +20899,7 @@
         <v>1329</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>1330</v>
@@ -20941,7 +20941,7 @@
         <v>1341</v>
       </c>
       <c r="S2" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="T2" t="s">
         <v>1342</v>
@@ -20961,19 +20961,19 @@
         <v>1345</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
         <v>1346</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
         <v>1347</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>1348</v>
@@ -21003,10 +21003,10 @@
         <v>1354</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -21056,7 +21056,7 @@
         <v>1367</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q4" t="s">
         <v>1368</v>
@@ -21068,7 +21068,7 @@
         <v>1362</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -21085,13 +21085,13 @@
         <v>1372</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
         <v>1373</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
         <v>1374</v>
@@ -21127,10 +21127,10 @@
         <v>1383</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -21189,7 +21189,7 @@
         <v>1397</v>
       </c>
       <c r="S6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s">
         <v>1358</v>
@@ -21209,7 +21209,7 @@
         <v>1399</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>1400</v>
@@ -21221,13 +21221,13 @@
         <v>1402</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
         <v>1403</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
         <v>1404</v>
@@ -21242,7 +21242,7 @@
         <v>1407</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q7" t="s">
         <v>1408</v>
@@ -21271,7 +21271,7 @@
         <v>1411</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>1412</v>
@@ -21313,7 +21313,7 @@
         <v>1421</v>
       </c>
       <c r="S8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s">
         <v>1358</v>
@@ -21333,13 +21333,13 @@
         <v>1422</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>1423</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
         <v>1424</v>
@@ -21366,7 +21366,7 @@
         <v>1430</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q9" t="s">
         <v>1431</v>
@@ -21383,7 +21383,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -21428,7 +21428,7 @@
         <v>1440</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q10" t="s">
         <v>1441</v>
@@ -21437,7 +21437,7 @@
         <v>1442</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
         <v>1342</v>
@@ -21457,7 +21457,7 @@
         <v>1444</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
         <v>1445</v>
@@ -21490,7 +21490,7 @@
         <v>1452</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q11" t="s">
         <v>1453</v>
@@ -21510,7 +21510,7 @@
         <v>1455</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>1456</v>
@@ -21525,13 +21525,13 @@
         <v>1458</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
         <v>1459</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
         <v>1460</v>
@@ -21552,7 +21552,7 @@
         <v>1464</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q12" t="s">
         <v>1465</v>
@@ -21561,7 +21561,7 @@
         <v>1466</v>
       </c>
       <c r="S12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T12" t="s">
         <v>1358</v>
@@ -21581,7 +21581,7 @@
         <v>1468</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
         <v>1469</v>
@@ -21623,7 +21623,7 @@
         <v>1479</v>
       </c>
       <c r="S13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
         <v>1342</v>
@@ -21643,7 +21643,7 @@
         <v>1481</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
         <v>1482</v>
@@ -21685,7 +21685,7 @@
         <v>1490</v>
       </c>
       <c r="S14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s">
         <v>1342</v>
@@ -21693,10 +21693,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>1491</v>
@@ -21738,7 +21738,7 @@
         <v>1499</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q15" t="s">
         <v>1500</v>
@@ -21747,7 +21747,7 @@
         <v>1465</v>
       </c>
       <c r="S15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T15" t="s">
         <v>1343</v>
@@ -21767,13 +21767,13 @@
         <v>1501</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
         <v>1502</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
         <v>1503</v>
@@ -21785,7 +21785,7 @@
         <v>1503</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
         <v>1504</v>
@@ -21800,7 +21800,7 @@
         <v>1503</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q16" t="s">
         <v>1506</v>
@@ -21812,7 +21812,7 @@
         <v>32</v>
       </c>
       <c r="T16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -21829,7 +21829,7 @@
         <v>1508</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
         <v>1509</v>
@@ -21871,7 +21871,7 @@
         <v>1518</v>
       </c>
       <c r="S17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T17" t="s">
         <v>1342</v>
@@ -21933,7 +21933,7 @@
         <v>1530</v>
       </c>
       <c r="S18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T18" t="s">
         <v>1358</v>
@@ -21953,7 +21953,7 @@
         <v>1532</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
         <v>1533</v>
@@ -21965,7 +21965,7 @@
         <v>1535</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
         <v>1533</v>
@@ -21986,7 +21986,7 @@
         <v>1538</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q19" t="s">
         <v>1539</v>
@@ -21995,10 +21995,10 @@
         <v>1540</v>
       </c>
       <c r="S19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -22048,7 +22048,7 @@
         <v>1549</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q20" t="s">
         <v>1550</v>
@@ -22089,7 +22089,7 @@
         <v>1556</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
         <v>1557</v>
@@ -22145,7 +22145,7 @@
         <v>1564</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
         <v>1565</v>
@@ -22157,7 +22157,7 @@
         <v>1566</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
         <v>1567</v>
@@ -22181,7 +22181,7 @@
         <v>1569</v>
       </c>
       <c r="S22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T22" t="s">
         <v>75</v>
@@ -22192,7 +22192,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>996</v>
@@ -22201,7 +22201,7 @@
         <v>996</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
         <v>996</v>
@@ -22219,7 +22219,7 @@
         <v>996</v>
       </c>
       <c r="K23" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s">
         <v>996</v>
@@ -22234,7 +22234,7 @@
         <v>996</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q23" t="s">
         <v>1465</v>
@@ -22263,19 +22263,19 @@
         <v>1571</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
         <v>1388</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
         <v>1572</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s">
         <v>1573</v>
@@ -22296,7 +22296,7 @@
         <v>1576</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q24" t="s">
         <v>1577</v>
@@ -22305,10 +22305,10 @@
         <v>1578</v>
       </c>
       <c r="S24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T24" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -22367,10 +22367,10 @@
         <v>1589</v>
       </c>
       <c r="S25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -22387,7 +22387,7 @@
         <v>1591</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
         <v>1592</v>
@@ -22399,7 +22399,7 @@
         <v>1593</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J26" t="s">
         <v>1594</v>
@@ -22491,7 +22491,7 @@
         <v>1609</v>
       </c>
       <c r="S27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T27" t="s">
         <v>1342</v>
@@ -22511,7 +22511,7 @@
         <v>1611</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
         <v>1612</v>
@@ -22544,7 +22544,7 @@
         <v>1619</v>
       </c>
       <c r="P28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q28" t="s">
         <v>1620</v>
@@ -22635,13 +22635,13 @@
         <v>1636</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
         <v>1637</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H30" t="s">
         <v>1638</v>
@@ -22668,7 +22668,7 @@
         <v>1643</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q30" t="s">
         <v>1644</v>
@@ -22697,7 +22697,7 @@
         <v>1647</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
         <v>1648</v>
@@ -22739,7 +22739,7 @@
         <v>1657</v>
       </c>
       <c r="S31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T31" t="s">
         <v>1658</v>
@@ -22750,7 +22750,7 @@
         <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>1659</v>
@@ -22759,7 +22759,7 @@
         <v>1659</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
         <v>1659</v>
@@ -22771,13 +22771,13 @@
         <v>1660</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s">
         <v>1661</v>
       </c>
       <c r="K32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L32" t="s">
         <v>1662</v>
@@ -22792,7 +22792,7 @@
         <v>1664</v>
       </c>
       <c r="P32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q32" t="s">
         <v>1665</v>
@@ -22801,10 +22801,10 @@
         <v>1660</v>
       </c>
       <c r="S32" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="T32" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -22821,19 +22821,19 @@
         <v>1666</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
         <v>1667</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H33" t="s">
         <v>1668</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J33" t="s">
         <v>1669</v>
@@ -22866,7 +22866,7 @@
         <v>1362</v>
       </c>
       <c r="T33" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -22925,7 +22925,7 @@
         <v>1686</v>
       </c>
       <c r="S34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T34" t="s">
         <v>1342</v>
@@ -22933,7 +22933,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>1327</v>
@@ -22945,13 +22945,13 @@
         <v>1688</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
         <v>1051</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
         <v>1689</v>
@@ -22978,7 +22978,7 @@
         <v>1693</v>
       </c>
       <c r="P35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q35" t="s">
         <v>1694</v>
@@ -22987,10 +22987,10 @@
         <v>1695</v>
       </c>
       <c r="S35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
@@ -23019,7 +23019,7 @@
         <v>1697</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J36" t="s">
         <v>1698</v>
@@ -23040,7 +23040,7 @@
         <v>1700</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q36" t="s">
         <v>996</v>
@@ -23052,7 +23052,7 @@
         <v>1390</v>
       </c>
       <c r="T36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
@@ -23119,7 +23119,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>1385</v>
@@ -23173,7 +23173,7 @@
         <v>1720</v>
       </c>
       <c r="S38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T38" t="s">
         <v>1358</v>
@@ -23193,7 +23193,7 @@
         <v>1723</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F39" t="s">
         <v>1445</v>
@@ -23226,7 +23226,7 @@
         <v>1729</v>
       </c>
       <c r="P39" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q39" t="s">
         <v>1730</v>
@@ -23235,7 +23235,7 @@
         <v>1731</v>
       </c>
       <c r="S39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T39" t="s">
         <v>1358</v>
@@ -23379,19 +23379,19 @@
         <v>1754</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
         <v>1445</v>
       </c>
       <c r="G42" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H42" t="s">
         <v>1755</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J42" t="s">
         <v>1756</v>
@@ -23412,7 +23412,7 @@
         <v>1760</v>
       </c>
       <c r="P42" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q42" t="s">
         <v>1761</v>
@@ -23474,7 +23474,7 @@
         <v>1771</v>
       </c>
       <c r="P43" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q43" t="s">
         <v>1772</v>
@@ -23483,7 +23483,7 @@
         <v>1773</v>
       </c>
       <c r="S43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T43" t="s">
         <v>1342</v>
@@ -23503,13 +23503,13 @@
         <v>1775</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
         <v>1776</v>
       </c>
       <c r="G44" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H44" t="s">
         <v>1777</v>
@@ -23548,7 +23548,7 @@
         <v>1390</v>
       </c>
       <c r="T44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -23556,7 +23556,7 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
         <v>1784</v>
@@ -23565,7 +23565,7 @@
         <v>1785</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
         <v>1786</v>
@@ -23577,7 +23577,7 @@
         <v>1787</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J45" t="s">
         <v>1788</v>
@@ -23627,7 +23627,7 @@
         <v>1796</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
         <v>1797</v>
@@ -23669,7 +23669,7 @@
         <v>1551</v>
       </c>
       <c r="S46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T46" t="s">
         <v>1358</v>
@@ -23689,7 +23689,7 @@
         <v>1807</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
         <v>1445</v>
@@ -23722,7 +23722,7 @@
         <v>1813</v>
       </c>
       <c r="P47" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q47" t="s">
         <v>1814</v>
@@ -23751,7 +23751,7 @@
         <v>1817</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
         <v>1445</v>
@@ -23763,7 +23763,7 @@
         <v>1818</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s">
         <v>1819</v>
@@ -23784,7 +23784,7 @@
         <v>1823</v>
       </c>
       <c r="P48" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q48" t="s">
         <v>1824</v>
@@ -23813,13 +23813,13 @@
         <v>1827</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F49" t="s">
         <v>1445</v>
       </c>
       <c r="G49" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H49" t="s">
         <v>1828</v>
@@ -23846,7 +23846,7 @@
         <v>1832</v>
       </c>
       <c r="P49" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q49" t="s">
         <v>1833</v>
@@ -23858,12 +23858,12 @@
         <v>1362</v>
       </c>
       <c r="T49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>1385</v>
@@ -23875,7 +23875,7 @@
         <v>1834</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
         <v>1592</v>
@@ -23917,7 +23917,7 @@
         <v>1051</v>
       </c>
       <c r="S50" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T50" t="s">
         <v>1358</v>
@@ -23937,7 +23937,7 @@
         <v>1838</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F51" t="s">
         <v>1445</v>
@@ -23970,7 +23970,7 @@
         <v>1845</v>
       </c>
       <c r="P51" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q51" t="s">
         <v>1846</v>
@@ -23979,7 +23979,7 @@
         <v>1847</v>
       </c>
       <c r="S51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T51" t="s">
         <v>1358</v>
@@ -23999,7 +23999,7 @@
         <v>1848</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
         <v>1592</v>
@@ -24032,7 +24032,7 @@
         <v>1715</v>
       </c>
       <c r="P52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q52" t="s">
         <v>1851</v>
@@ -24041,7 +24041,7 @@
         <v>1852</v>
       </c>
       <c r="S52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T52" t="s">
         <v>1825</v>
@@ -24094,7 +24094,7 @@
         <v>1051</v>
       </c>
       <c r="P53" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q53" t="s">
         <v>1851</v>
@@ -24103,7 +24103,7 @@
         <v>1540</v>
       </c>
       <c r="S53" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T53" t="s">
         <v>1342</v>
@@ -24129,13 +24129,13 @@
         <v>1860</v>
       </c>
       <c r="G54" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H54" t="s">
         <v>1854</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J54" t="s">
         <v>1861</v>
@@ -24185,7 +24185,7 @@
         <v>1866</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s">
         <v>1867</v>
@@ -24227,7 +24227,7 @@
         <v>1875</v>
       </c>
       <c r="S55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T55" t="s">
         <v>1358</v>
@@ -24238,7 +24238,7 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
         <v>1344</v>
@@ -24247,7 +24247,7 @@
         <v>1876</v>
       </c>
       <c r="E56" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F56" t="s">
         <v>1592</v>
@@ -24289,7 +24289,7 @@
         <v>1885</v>
       </c>
       <c r="S56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T56" t="s">
         <v>1358</v>
@@ -24342,7 +24342,7 @@
         <v>1890</v>
       </c>
       <c r="P57" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q57" t="s">
         <v>1891</v>
@@ -24351,10 +24351,10 @@
         <v>1892</v>
       </c>
       <c r="S57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58">
@@ -24404,7 +24404,7 @@
         <v>1900</v>
       </c>
       <c r="P58" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q58" t="s">
         <v>1901</v>
@@ -24413,7 +24413,7 @@
         <v>1902</v>
       </c>
       <c r="S58" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T58" t="s">
         <v>1342</v>
@@ -24433,13 +24433,13 @@
         <v>1904</v>
       </c>
       <c r="E59" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F59" t="s">
         <v>1423</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H59" t="s">
         <v>1905</v>
@@ -24478,7 +24478,7 @@
         <v>1362</v>
       </c>
       <c r="T59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60">
@@ -24540,7 +24540,7 @@
         <v>1390</v>
       </c>
       <c r="T60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61">
@@ -24563,13 +24563,13 @@
         <v>1592</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H61" t="s">
         <v>1924</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J61" t="s">
         <v>1922</v>
@@ -24590,7 +24590,7 @@
         <v>1926</v>
       </c>
       <c r="P61" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q61" t="s">
         <v>1927</v>
@@ -24599,15 +24599,15 @@
         <v>1620</v>
       </c>
       <c r="S61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
         <v>1360</v>
@@ -24619,7 +24619,7 @@
         <v>1928</v>
       </c>
       <c r="E62" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F62" t="s">
         <v>1677</v>
@@ -24652,7 +24652,7 @@
         <v>1934</v>
       </c>
       <c r="P62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q62" t="s">
         <v>1935</v>
@@ -24661,7 +24661,7 @@
         <v>1936</v>
       </c>
       <c r="S62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T62" t="s">
         <v>1937</v>
@@ -24693,7 +24693,7 @@
         <v>1940</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J63" t="s">
         <v>1941</v>
@@ -24714,7 +24714,7 @@
         <v>1945</v>
       </c>
       <c r="P63" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q63" t="s">
         <v>1946</v>
@@ -24743,7 +24743,7 @@
         <v>1949</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
         <v>1950</v>
@@ -24776,7 +24776,7 @@
         <v>1956</v>
       </c>
       <c r="P64" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q64" t="s">
         <v>1957</v>
@@ -24785,10 +24785,10 @@
         <v>1958</v>
       </c>
       <c r="S64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
@@ -24805,7 +24805,7 @@
         <v>1960</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
         <v>1961</v>
@@ -24850,7 +24850,7 @@
         <v>1390</v>
       </c>
       <c r="T65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
@@ -24929,13 +24929,13 @@
         <v>1979</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F67" t="s">
         <v>1713</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H67" t="s">
         <v>1980</v>
@@ -24962,7 +24962,7 @@
         <v>1985</v>
       </c>
       <c r="P67" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q67" t="s">
         <v>1986</v>
@@ -24971,7 +24971,7 @@
         <v>1551</v>
       </c>
       <c r="S67" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T67" t="s">
         <v>1358</v>
@@ -24991,7 +24991,7 @@
         <v>1987</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F68" t="s">
         <v>1988</v>
@@ -25024,7 +25024,7 @@
         <v>991</v>
       </c>
       <c r="P68" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q68" t="s">
         <v>991</v>
@@ -25033,15 +25033,15 @@
         <v>991</v>
       </c>
       <c r="S68" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="T68" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
         <v>1360</v>
@@ -25053,7 +25053,7 @@
         <v>996</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F69" t="s">
         <v>1991</v>
@@ -25095,7 +25095,7 @@
         <v>1892</v>
       </c>
       <c r="S69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T69" t="s">
         <v>1385</v>
@@ -25157,10 +25157,10 @@
         <v>2004</v>
       </c>
       <c r="S70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
@@ -25177,7 +25177,7 @@
         <v>2006</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
         <v>2007</v>
@@ -25222,7 +25222,7 @@
         <v>1375</v>
       </c>
       <c r="T71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
@@ -25239,7 +25239,7 @@
         <v>2016</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F72" t="s">
         <v>1677</v>
@@ -25281,7 +25281,7 @@
         <v>2023</v>
       </c>
       <c r="S72" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T72" t="s">
         <v>1342</v>
@@ -25289,7 +25289,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
         <v>1360</v>
@@ -25301,13 +25301,13 @@
         <v>2025</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F73" t="s">
         <v>1564</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
         <v>2026</v>
@@ -25334,7 +25334,7 @@
         <v>2026</v>
       </c>
       <c r="P73" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q73" t="s">
         <v>2028</v>
@@ -25363,7 +25363,7 @@
         <v>2031</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s">
         <v>2032</v>
@@ -25396,7 +25396,7 @@
         <v>2037</v>
       </c>
       <c r="P74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q74" t="s">
         <v>2038</v>
@@ -25431,13 +25431,13 @@
         <v>2041</v>
       </c>
       <c r="G75" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H75" t="s">
         <v>2042</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J75" t="s">
         <v>2043</v>
@@ -25458,7 +25458,7 @@
         <v>2047</v>
       </c>
       <c r="P75" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q75" t="s">
         <v>2048</v>
@@ -25470,7 +25470,7 @@
         <v>32</v>
       </c>
       <c r="T75" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
@@ -25487,7 +25487,7 @@
         <v>2050</v>
       </c>
       <c r="E76" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F76" t="s">
         <v>2051</v>
@@ -25520,7 +25520,7 @@
         <v>2057</v>
       </c>
       <c r="P76" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q76" t="s">
         <v>2058</v>
@@ -25561,7 +25561,7 @@
         <v>2062</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J77" t="s">
         <v>1051</v>
@@ -25591,10 +25591,10 @@
         <v>1620</v>
       </c>
       <c r="S77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78">
@@ -25611,7 +25611,7 @@
         <v>2068</v>
       </c>
       <c r="E78" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F78" t="s">
         <v>2069</v>
@@ -25623,7 +25623,7 @@
         <v>2070</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J78" t="s">
         <v>2071</v>
@@ -25644,7 +25644,7 @@
         <v>2074</v>
       </c>
       <c r="P78" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q78" t="s">
         <v>1368</v>
@@ -25656,7 +25656,7 @@
         <v>32</v>
       </c>
       <c r="T78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
@@ -25673,7 +25673,7 @@
         <v>2075</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F79" t="s">
         <v>2075</v>
@@ -25706,7 +25706,7 @@
         <v>2075</v>
       </c>
       <c r="P79" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q79" t="s">
         <v>2077</v>
@@ -25718,7 +25718,7 @@
         <v>32</v>
       </c>
       <c r="T79" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80">
@@ -25797,13 +25797,13 @@
         <v>2092</v>
       </c>
       <c r="E81" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F81" t="s">
         <v>2093</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H81" t="s">
         <v>2094</v>
@@ -25830,7 +25830,7 @@
         <v>2099</v>
       </c>
       <c r="P81" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q81" t="s">
         <v>2100</v>
@@ -25842,12 +25842,12 @@
         <v>32</v>
       </c>
       <c r="T81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
         <v>1342</v>
@@ -25859,7 +25859,7 @@
         <v>2103</v>
       </c>
       <c r="E82" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F82" t="s">
         <v>1458</v>
@@ -25892,7 +25892,7 @@
         <v>2106</v>
       </c>
       <c r="P82" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q82" t="s">
         <v>2107</v>
@@ -25904,7 +25904,7 @@
         <v>32</v>
       </c>
       <c r="T82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83">
@@ -25921,7 +25921,7 @@
         <v>2110</v>
       </c>
       <c r="E83" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F83" t="s">
         <v>1592</v>
@@ -25963,7 +25963,7 @@
         <v>1710</v>
       </c>
       <c r="S83" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T83" t="s">
         <v>1342</v>
@@ -25995,7 +25995,7 @@
         <v>2120</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J84" t="s">
         <v>2121</v>
@@ -26016,7 +26016,7 @@
         <v>2125</v>
       </c>
       <c r="P84" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q84" t="s">
         <v>2126</v>
@@ -26028,7 +26028,7 @@
         <v>32</v>
       </c>
       <c r="T84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
@@ -26057,7 +26057,7 @@
         <v>2129</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J85" t="s">
         <v>2130</v>
@@ -26078,7 +26078,7 @@
         <v>2134</v>
       </c>
       <c r="P85" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q85" t="s">
         <v>2135</v>
@@ -26087,7 +26087,7 @@
         <v>1620</v>
       </c>
       <c r="S85" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T85" t="s">
         <v>1358</v>
@@ -26107,7 +26107,7 @@
         <v>2137</v>
       </c>
       <c r="E86" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F86" t="s">
         <v>2061</v>
@@ -26119,13 +26119,13 @@
         <v>2138</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J86" t="s">
         <v>2139</v>
       </c>
       <c r="K86" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="L86" t="s">
         <v>1473</v>
@@ -26140,7 +26140,7 @@
         <v>2142</v>
       </c>
       <c r="P86" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q86" t="s">
         <v>1465</v>
@@ -26152,7 +26152,7 @@
         <v>32</v>
       </c>
       <c r="T86" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
@@ -26160,7 +26160,7 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C87" t="s">
         <v>2143</v>
@@ -26169,7 +26169,7 @@
         <v>2144</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
         <v>996</v>
@@ -26181,7 +26181,7 @@
         <v>2145</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J87" t="s">
         <v>2146</v>
@@ -26202,7 +26202,7 @@
         <v>996</v>
       </c>
       <c r="P87" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q87" t="s">
         <v>1968</v>
@@ -26211,18 +26211,18 @@
         <v>1540</v>
       </c>
       <c r="S87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
         <v>2149</v>
@@ -26231,13 +26231,13 @@
         <v>2149</v>
       </c>
       <c r="E88" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F88" t="s">
         <v>2149</v>
       </c>
       <c r="G88" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H88" t="s">
         <v>2150</v>
@@ -26326,7 +26326,7 @@
         <v>2163</v>
       </c>
       <c r="P89" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q89" t="s">
         <v>2164</v>
@@ -26335,7 +26335,7 @@
         <v>1864</v>
       </c>
       <c r="S89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T89" t="s">
         <v>1358</v>
@@ -26397,7 +26397,7 @@
         <v>1540</v>
       </c>
       <c r="S90" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T90" t="s">
         <v>1358</v>
@@ -26417,7 +26417,7 @@
         <v>2177</v>
       </c>
       <c r="E91" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F91" t="s">
         <v>1423</v>
@@ -26459,7 +26459,7 @@
         <v>2182</v>
       </c>
       <c r="S91" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="T91" t="s">
         <v>1342</v>
@@ -26479,7 +26479,7 @@
         <v>2184</v>
       </c>
       <c r="E92" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F92" t="s">
         <v>2185</v>
@@ -26521,7 +26521,7 @@
         <v>2192</v>
       </c>
       <c r="S92" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T92" t="s">
         <v>1358</v>
@@ -26535,25 +26535,25 @@
         <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E93" t="s">
         <v>75</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H93" t="s">
         <v>2193</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J93" t="s">
         <v>2194</v>
@@ -26574,7 +26574,7 @@
         <v>2197</v>
       </c>
       <c r="P93" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q93" t="s">
         <v>2198</v>
@@ -26586,7 +26586,7 @@
         <v>32</v>
       </c>
       <c r="T93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94">
@@ -26665,7 +26665,7 @@
         <v>2208</v>
       </c>
       <c r="E95" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F95" t="s">
         <v>1445</v>
@@ -26677,7 +26677,7 @@
         <v>2209</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J95" t="s">
         <v>2210</v>
@@ -26698,7 +26698,7 @@
         <v>2214</v>
       </c>
       <c r="P95" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Q95" t="s">
         <v>2215</v>
@@ -26710,7 +26710,7 @@
         <v>1362</v>
       </c>
       <c r="T95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96">
@@ -26769,7 +26769,7 @@
         <v>1731</v>
       </c>
       <c r="S96" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="T96" t="s">
         <v>1358</v>
@@ -26789,7 +26789,7 @@
         <v>2224</v>
       </c>
       <c r="E97" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F97" t="s">
         <v>2225</v>
